--- a/channel.xlsx
+++ b/channel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shantanu\Documents\GitHub\Autoit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shant\Documents\Autoit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443844AA-316F-4B00-B0E6-D1432789BE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E147FE-383E-4A7A-B9EB-C9DA2325030A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B1FA29DC-853D-44DF-BFF8-AD3758BE0C16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B1FA29DC-853D-44DF-BFF8-AD3758BE0C16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="182">
   <si>
     <t>Mo music</t>
   </si>
@@ -243,45 +243,15 @@
     <t>C374</t>
   </si>
   <si>
-    <t>Aaj Tak HD @ 2</t>
-  </si>
-  <si>
     <t>Disney Channel HD @ 12</t>
   </si>
   <si>
-    <t>Filamchi Bhojpuri @ 0.25</t>
-  </si>
-  <si>
-    <t>Good News Today @ 0.25</t>
-  </si>
-  <si>
-    <t>India Today @ 1.5</t>
-  </si>
-  <si>
     <t>Jalsha Movies HD @ 19</t>
   </si>
   <si>
-    <t>Maa Gold @ 7</t>
-  </si>
-  <si>
-    <t>Maa Movies @ 19</t>
-  </si>
-  <si>
-    <t>Maa Music @ 4</t>
-  </si>
-  <si>
-    <t>Maa Tv @ 19</t>
-  </si>
-  <si>
-    <t>Nazara @ 0.15</t>
-  </si>
-  <si>
     <t>National Geographic HD @ 14</t>
   </si>
   <si>
-    <t>News18 JKLH @ 0.1</t>
-  </si>
-  <si>
     <t>Nat Geo Wild HD @ 8</t>
   </si>
   <si>
@@ -300,9 +270,6 @@
     <t>Star Jalsha HD @ 19</t>
   </si>
   <si>
-    <t>Fox Life HD @ 2</t>
-  </si>
-  <si>
     <t>Star Movies HD @ 19</t>
   </si>
   <si>
@@ -327,15 +294,6 @@
     <t>Zee Cinema HD @ 19</t>
   </si>
   <si>
-    <t>Zee Madhya Pradesh Chattisgarh @ 0.1</t>
-  </si>
-  <si>
-    <t>Zee News @ 0.1</t>
-  </si>
-  <si>
-    <t>Zee Uttar Pradesh Uttarakhand @ 0.1</t>
-  </si>
-  <si>
     <t>C432</t>
   </si>
   <si>
@@ -438,24 +396,206 @@
     <t>C44</t>
   </si>
   <si>
-    <t>Aaj Tak @ 0.75</t>
+    <t>Cnbc Tv18 Prime HD @ 1</t>
+  </si>
+  <si>
+    <t>Colors Bangla HD @ 14</t>
+  </si>
+  <si>
+    <t>Colors HD @ 19</t>
+  </si>
+  <si>
+    <t>Colors Infinity HD @ 9</t>
+  </si>
+  <si>
+    <t>Comedy Central HD @ 9</t>
+  </si>
+  <si>
+    <t>DD National Hd</t>
+  </si>
+  <si>
+    <t>DD News Hd</t>
+  </si>
+  <si>
+    <t>Discovery Hd World @ 8</t>
+  </si>
+  <si>
+    <t>Disney International HD @ 14</t>
+  </si>
+  <si>
+    <t>ETV Balbharat HD @ 6</t>
+  </si>
+  <si>
+    <t>Etv Cinema HD @ 19</t>
+  </si>
+  <si>
+    <t>Etv HD @ 19</t>
+  </si>
+  <si>
+    <t>Etv Plus HD @ 16</t>
+  </si>
+  <si>
+    <t>EuroSport Hd @ 5.5</t>
+  </si>
+  <si>
+    <t>Eurosports HD</t>
+  </si>
+  <si>
+    <t>Fashiontv Hd</t>
+  </si>
+  <si>
+    <t>France 24 Hd (In English)</t>
+  </si>
+  <si>
+    <t>History Tv18 HD @ 7</t>
+  </si>
+  <si>
+    <t>India Tv Prime Hd</t>
+  </si>
+  <si>
+    <t>Investigation Discovery HD @ 2</t>
+  </si>
+  <si>
+    <t>Living Foodz HD @ 10</t>
+  </si>
+  <si>
+    <t>Maa Movies HD @ 19</t>
+  </si>
+  <si>
+    <t>Mn HD @ 10</t>
+  </si>
+  <si>
+    <t>MNX HD @ 9</t>
+  </si>
+  <si>
+    <t>Movies Now HD @ 12</t>
+  </si>
+  <si>
+    <t>Mtv Beats HD @ 1</t>
+  </si>
+  <si>
+    <t>Mtv HD @ 5</t>
+  </si>
+  <si>
+    <t>Nhk World Hd50</t>
+  </si>
+  <si>
+    <t>Nick HD @ 10</t>
+  </si>
+  <si>
+    <t>Sansad Tv 1 Hd</t>
+  </si>
+  <si>
+    <t>Sansad Tv 2 Hd</t>
+  </si>
+  <si>
+    <t>Sony Entertainment Television Hd @ 19</t>
+  </si>
+  <si>
+    <t>Sony Max Hd @ 19</t>
+  </si>
+  <si>
+    <t>Sony Pix Hd @ 19</t>
+  </si>
+  <si>
+    <t>Sony Sab Hd @ 19</t>
+  </si>
+  <si>
+    <t>Sony Sports Ten 1 Hd @ 19</t>
+  </si>
+  <si>
+    <t>Sony Sports Ten 2 Hd @ 19</t>
+  </si>
+  <si>
+    <t>Sony Sports Ten 3 Hd @ 19</t>
+  </si>
+  <si>
+    <t>Sony Sports Ten 5 Hd @ 19</t>
+  </si>
+  <si>
+    <t>Sports 18 1 HD @ 10</t>
+  </si>
+  <si>
+    <t>Star Kiran HD @ 15</t>
+  </si>
+  <si>
+    <t>Star Life Hd ? 2.00</t>
+  </si>
+  <si>
+    <t>Star Movies Select 2 Hd @ 19</t>
+  </si>
+  <si>
+    <t>Star Movies Select HD @ 19</t>
+  </si>
+  <si>
+    <t>Star Sports HD1 @ 19</t>
+  </si>
+  <si>
+    <t>Sun Bangla HD</t>
+  </si>
+  <si>
+    <t>Sun NEO HD</t>
+  </si>
+  <si>
+    <t>Tlc HD World @ 3</t>
+  </si>
+  <si>
+    <t>Travel Xp Hd @ 9</t>
+  </si>
+  <si>
+    <t>Trt World Hd</t>
+  </si>
+  <si>
+    <t>Vh1 HD @ 2</t>
+  </si>
+  <si>
+    <t>Zee Bangla HD @ 19</t>
+  </si>
+  <si>
+    <t>Zee Cafe HD @ 10</t>
+  </si>
+  <si>
+    <t>Zee Cinemalu HD @ 16</t>
+  </si>
+  <si>
+    <t>Zee Kannada HD @ 19</t>
+  </si>
+  <si>
+    <t>Zee Keralam HD @ 10</t>
+  </si>
+  <si>
+    <t>Zee Marathi HD @ 19</t>
+  </si>
+  <si>
+    <t>Zee Picchar HD @ 16</t>
+  </si>
+  <si>
+    <t>Zee Talkies HD @ 19</t>
+  </si>
+  <si>
+    <t>Zee Tamil HD @ 19</t>
+  </si>
+  <si>
+    <t>Zee Telugu HD @ 19</t>
+  </si>
+  <si>
+    <t>Zee Thirai HD @ 16</t>
+  </si>
+  <si>
+    <t>Zee Tv HD @ 19</t>
+  </si>
+  <si>
+    <t>Zee Zest Hd @ 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -468,17 +608,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -495,19 +630,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -841,9 +973,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7243670-09EA-48D1-9EF1-284886C030E6}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection sqref="A1:A82"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -853,40 +987,40 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B1">
         <v>261</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="B2">
         <v>799</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>68</v>
+      <c r="A3" t="s">
+        <v>120</v>
       </c>
       <c r="B3">
         <v>866</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
+      <c r="A4" t="s">
+        <v>121</v>
       </c>
       <c r="B4">
         <v>920</v>
@@ -897,389 +1031,615 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="B5">
         <v>665</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="B6">
         <v>279</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="B7">
         <v>209</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="B8">
         <v>744</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B9">
         <v>626</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="B10">
         <v>625</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="B11">
         <v>640</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="B12">
         <v>628</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="B13">
         <v>9999</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="B14">
         <v>843</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="B15">
         <v>563</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D15" t="str">
         <f>PROPER(A15)</f>
-        <v>News18 Jklh @ 0.1</v>
+        <v>Eurosport Hd @ 5.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="B16">
         <v>844</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" ref="D16:D22" si="0">PROPER(A16)</f>
-        <v>Nat Geo Wild Hd @ 8</v>
+        <v>Eurosports Hd</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="B17">
         <v>165</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>R Bangla Rs.0</v>
+        <v>Fashiontv Hd</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="B18">
         <v>720</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>Star Bharat Hd @ 19</v>
+        <v>France 24 Hd (In English)</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="B19">
         <v>700</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>Star Gold 2 Hd @ 4</v>
+        <v>History Tv18 Hd @ 7</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="B20">
         <v>693</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>Star Gold Hd @ 19</v>
+        <v>India Tv Prime Hd</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="B21">
         <v>698</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v>Star Gold Select Hd @ 10</v>
+        <v>Investigation Discovery Hd @ 2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B22">
         <v>734</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v>Star Jalsha Hd @ 19</v>
+        <v>Jalsha Movies Hd @ 19</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="B23">
         <v>855</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="B24">
         <v>821</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="B25">
         <v>714</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="B26">
         <v>756</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="B27">
         <v>758</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="B28">
         <v>757</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>91</v>
+      <c r="A29" t="s">
+        <v>144</v>
       </c>
       <c r="B29">
         <v>764</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>92</v>
+      <c r="A30" t="s">
+        <v>70</v>
       </c>
       <c r="B30">
         <v>765</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B31">
         <v>779</v>
       </c>
       <c r="C31" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="B32">
         <v>694</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="B33">
         <v>292</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="B34">
         <v>264</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="B35">
         <v>272</v>
       </c>
       <c r="C35" t="s">
-        <v>131</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
+      <c r="A39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+      <c r="A41" t="s">
+        <v>154</v>
+      </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="A46" t="s">
+        <v>72</v>
+      </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>181</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
